--- a/Outputs/4. Prosumer percentage constrained/Output Files/50/Output_0_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/50/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2060528.294634293</v>
+        <v>2060127.207017205</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244709.4606773129</v>
+        <v>244709.4606773122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>209.5840294848448</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -674,10 +674,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>9.188150543575789</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -713,13 +713,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -747,16 +747,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>24.8280897416207</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.76291367857222</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>40.02018856699249</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>56.78874461372727</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>84.74080648560343</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>106.7805379838101</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>19.1143274679297</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>59.69759684879124</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>62.53083343950205</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>12.03604070576291</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -1148,7 +1148,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>77.29015760003963</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>78.59602910536552</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>58.0633291268696</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>18.88606849311432</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>268.1932755567387</v>
       </c>
       <c r="D11" t="n">
-        <v>259.1745796012667</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>280.9167171711723</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>300.0885332591494</v>
       </c>
       <c r="G11" t="n">
-        <v>302.021801156572</v>
+        <v>302.0218011565719</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5719161348819</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>112.194211282517</v>
       </c>
       <c r="U11" t="n">
-        <v>22.77171943725133</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>223.6883358392361</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.988435317193</v>
       </c>
       <c r="X11" t="n">
-        <v>268.2886935499397</v>
+        <v>268.2886935499396</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.6852913461385</v>
+        <v>119.9323266606783</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>77.67202513757962</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>62.30657591935816</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.7986694737541</v>
+        <v>71.79866947375409</v>
       </c>
       <c r="C13" t="n">
-        <v>57.99866431915459</v>
+        <v>57.99866431915457</v>
       </c>
       <c r="D13" t="n">
-        <v>41.62002871673297</v>
+        <v>41.62002871673296</v>
       </c>
       <c r="E13" t="n">
-        <v>40.56777857251242</v>
+        <v>40.56777857251241</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.03470290069872</v>
       </c>
       <c r="G13" t="n">
-        <v>57.30940562204657</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.85777324473699</v>
+        <v>47.85777324473698</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83986842956634</v>
+        <v>32.83986842956632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.10541804798363</v>
       </c>
       <c r="S13" t="n">
         <v>101.6515194465674</v>
@@ -1588,13 +1588,13 @@
         <v>148.2068058733797</v>
       </c>
       <c r="W13" t="n">
-        <v>168.855969247952</v>
+        <v>173.3736919439929</v>
       </c>
       <c r="X13" t="n">
-        <v>119.0187939397961</v>
+        <v>92.67035591712015</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.8936616958638</v>
+        <v>109.8936616958637</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.1711314835026</v>
+        <v>280.181958599057</v>
       </c>
       <c r="C14" t="n">
-        <v>268.1932755567387</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>259.1745796012667</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F14" t="n">
-        <v>300.0885332591495</v>
+        <v>300.0885332591494</v>
       </c>
       <c r="G14" t="n">
-        <v>302.021801156572</v>
+        <v>302.0218011565719</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.16788127951001</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.43554009216764</v>
       </c>
       <c r="T14" t="n">
         <v>112.194211282517</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V14" t="n">
-        <v>223.6883358392361</v>
+        <v>91.64052107045771</v>
       </c>
       <c r="W14" t="n">
-        <v>248.9884353171931</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.2886935499397</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.6852913461385</v>
+        <v>279.6852913461384</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.7986694737541</v>
+        <v>71.79866947375409</v>
       </c>
       <c r="C16" t="n">
-        <v>57.99866431915459</v>
+        <v>57.99866431915457</v>
       </c>
       <c r="D16" t="n">
-        <v>41.62002871673297</v>
+        <v>41.62002871673296</v>
       </c>
       <c r="E16" t="n">
-        <v>40.56777857251242</v>
+        <v>40.56777857251241</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.03470290069872</v>
       </c>
       <c r="G16" t="n">
-        <v>14.68626487802243</v>
+        <v>57.30940562204655</v>
       </c>
       <c r="H16" t="n">
-        <v>47.85777324473699</v>
+        <v>47.85777324473698</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83986842956634</v>
+        <v>32.83986842956632</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.10541804798365</v>
+        <v>38.10541804798363</v>
       </c>
       <c r="S16" t="n">
         <v>101.6515194465674</v>
@@ -1822,16 +1822,16 @@
         <v>174.3971915920092</v>
       </c>
       <c r="V16" t="n">
-        <v>148.2068058733797</v>
+        <v>64.54896222865794</v>
       </c>
       <c r="W16" t="n">
-        <v>173.373691943993</v>
+        <v>173.3736919439929</v>
       </c>
       <c r="X16" t="n">
         <v>119.0187939397961</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.8936616958638</v>
+        <v>109.8936616958637</v>
       </c>
     </row>
     <row r="17">
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>9.973562680740013</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353616</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2132,7 +2132,7 @@
         <v>14.26765881265763</v>
       </c>
       <c r="T20" t="n">
-        <v>51.02633000300699</v>
+        <v>51.0263300030079</v>
       </c>
       <c r="U20" t="n">
         <v>81.24745611985395</v>
@@ -2175,10 +2175,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>77.67202513757874</v>
+        <v>9.973562680740013</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891892</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>121.4930021353607</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2558,7 +2558,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>38.77075896112717</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>80.18166081073122</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326546</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2801,7 +2801,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>42.92604142866001</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
@@ -2810,7 +2810,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>51.59689816204681</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2883,10 +2883,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914448</v>
       </c>
       <c r="H30" t="n">
-        <v>84.37298759326546</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133623</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3266,25 +3266,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C35" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D35" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E35" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F35" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G35" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H35" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I35" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T35" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U35" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W35" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X35" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y35" t="n">
         <v>223.4773717274634</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C37" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T37" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U37" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V37" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W37" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X37" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D38" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E38" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F38" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G38" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H38" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I38" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T38" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U38" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W38" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y38" t="n">
         <v>223.4773717274634</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C40" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T40" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U40" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V40" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W40" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X40" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G41" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y41" t="n">
         <v>223.4773717274634</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133634</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133637</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.57800892448</v>
+        <v>879.51945599193</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.57800892448</v>
+        <v>879.51945599193</v>
       </c>
       <c r="D2" t="n">
-        <v>1587.57800892448</v>
+        <v>879.51945599193</v>
       </c>
       <c r="E2" t="n">
-        <v>1375.876969040799</v>
+        <v>879.51945599193</v>
       </c>
       <c r="F2" t="n">
-        <v>961.725778350969</v>
+        <v>465.3682653021004</v>
       </c>
       <c r="G2" t="n">
-        <v>545.621791805157</v>
+        <v>49.26427875628838</v>
       </c>
       <c r="H2" t="n">
-        <v>212.8005174024663</v>
+        <v>49.26427875628838</v>
       </c>
       <c r="I2" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="J2" t="n">
-        <v>39.98331861126231</v>
+        <v>111.981862884068</v>
       </c>
       <c r="K2" t="n">
-        <v>252.1162979219411</v>
+        <v>352.1222349288507</v>
       </c>
       <c r="L2" t="n">
-        <v>600.0016710068874</v>
+        <v>700.0076080137969</v>
       </c>
       <c r="M2" t="n">
-        <v>993.2408372599753</v>
+        <v>1093.246774266885</v>
       </c>
       <c r="N2" t="n">
-        <v>1371.572195947691</v>
+        <v>1471.578132954601</v>
       </c>
       <c r="O2" t="n">
-        <v>1676.576780420525</v>
+        <v>1776.582717427435</v>
       </c>
       <c r="P2" t="n">
-        <v>1904.733676876578</v>
+        <v>1904.733676876579</v>
       </c>
       <c r="Q2" t="n">
-        <v>1999.165930563115</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R2" t="n">
-        <v>1999.165930563115</v>
+        <v>1908.52764405897</v>
       </c>
       <c r="S2" t="n">
-        <v>1811.936955193469</v>
+        <v>1721.298668689324</v>
       </c>
       <c r="T2" t="n">
-        <v>1587.57800892448</v>
+        <v>1496.939722420335</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.57800892448</v>
+        <v>1242.054386134329</v>
       </c>
       <c r="V2" t="n">
-        <v>1587.57800892448</v>
+        <v>1242.054386134329</v>
       </c>
       <c r="W2" t="n">
-        <v>1587.57800892448</v>
+        <v>879.51945599193</v>
       </c>
       <c r="X2" t="n">
-        <v>1587.57800892448</v>
+        <v>879.51945599193</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.57800892448</v>
+        <v>879.51945599193</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>819.3582216600045</v>
+        <v>512.6325168501139</v>
       </c>
       <c r="C3" t="n">
-        <v>657.6545489009592</v>
+        <v>350.9288440910686</v>
       </c>
       <c r="D3" t="n">
-        <v>518.8159118911713</v>
+        <v>212.0902070812807</v>
       </c>
       <c r="E3" t="n">
-        <v>371.7879019480424</v>
+        <v>65.06219713815193</v>
       </c>
       <c r="F3" t="n">
-        <v>237.0941038979167</v>
+        <v>65.06219713815193</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3656039212013</v>
+        <v>65.06219713815193</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3656039212013</v>
+        <v>65.06219713815193</v>
       </c>
       <c r="I3" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2374651443685</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="K3" t="n">
-        <v>329.7280177045571</v>
+        <v>269.473871171451</v>
       </c>
       <c r="L3" t="n">
-        <v>695.5498628746727</v>
+        <v>635.2957163415666</v>
       </c>
       <c r="M3" t="n">
-        <v>810.076492688896</v>
+        <v>810.0764926888969</v>
       </c>
       <c r="N3" t="n">
-        <v>1304.870060503267</v>
+        <v>1304.870060503268</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.070011287418</v>
+        <v>1697.070011287419</v>
       </c>
       <c r="P3" t="n">
-        <v>1999.165930563115</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="Q3" t="n">
-        <v>1999.165930563115</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R3" t="n">
-        <v>1939.381661658061</v>
+        <v>1939.381661658062</v>
       </c>
       <c r="S3" t="n">
-        <v>1939.381661658061</v>
+        <v>1939.381661658062</v>
       </c>
       <c r="T3" t="n">
-        <v>1750.696557824046</v>
+        <v>1750.696557824047</v>
       </c>
       <c r="U3" t="n">
-        <v>1532.201765422356</v>
+        <v>1532.201765422357</v>
       </c>
       <c r="V3" t="n">
-        <v>1303.80614287069</v>
+        <v>1303.806142870691</v>
       </c>
       <c r="W3" t="n">
-        <v>1062.490274104</v>
+        <v>1062.490274104001</v>
       </c>
       <c r="X3" t="n">
-        <v>864.5732859817946</v>
+        <v>864.5732859817959</v>
       </c>
       <c r="Y3" t="n">
-        <v>819.3582216600045</v>
+        <v>672.0519596313748</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="C4" t="n">
-        <v>383.9834411252619</v>
+        <v>402.426594318875</v>
       </c>
       <c r="D4" t="n">
-        <v>383.9834411252619</v>
+        <v>249.3547011466377</v>
       </c>
       <c r="E4" t="n">
-        <v>343.5590082293099</v>
+        <v>97.34568690795655</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5590082293099</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="G4" t="n">
-        <v>343.5590082293099</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="H4" t="n">
-        <v>184.1863630085838</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="I4" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="J4" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="K4" t="n">
-        <v>73.58750635590572</v>
+        <v>73.58750635590573</v>
       </c>
       <c r="L4" t="n">
         <v>174.1945857561652</v>
@@ -4507,31 +4507,31 @@
         <v>572.0425638571948</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.5052225108838</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="R4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="S4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="T4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="U4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="V4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="W4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="X4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.9834411252619</v>
+        <v>572.0425638571948</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1406.624975264373</v>
+        <v>542.5401818878713</v>
       </c>
       <c r="C5" t="n">
-        <v>1406.624975264373</v>
+        <v>542.5401818878713</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.801010491597</v>
+        <v>542.5401818878713</v>
       </c>
       <c r="E5" t="n">
-        <v>639.0152905977039</v>
+        <v>147.7544619939782</v>
       </c>
       <c r="F5" t="n">
-        <v>224.8640999078743</v>
+        <v>137.6436753445525</v>
       </c>
       <c r="G5" t="n">
-        <v>212.8005174024663</v>
+        <v>125.5800928391446</v>
       </c>
       <c r="H5" t="n">
-        <v>212.8005174024663</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="I5" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="J5" t="n">
-        <v>106.4081795636954</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="K5" t="n">
-        <v>346.5485516084781</v>
+        <v>252.1162979219425</v>
       </c>
       <c r="L5" t="n">
-        <v>694.4339246934244</v>
+        <v>600.0016710068887</v>
       </c>
       <c r="M5" t="n">
-        <v>1087.673090946512</v>
+        <v>993.2408372599766</v>
       </c>
       <c r="N5" t="n">
-        <v>1466.004449634228</v>
+        <v>1371.572195947692</v>
       </c>
       <c r="O5" t="n">
-        <v>1771.009034107062</v>
+        <v>1676.576780420526</v>
       </c>
       <c r="P5" t="n">
-        <v>1999.165930563115</v>
+        <v>1904.733676876579</v>
       </c>
       <c r="Q5" t="n">
-        <v>1999.165930563115</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R5" t="n">
-        <v>1908.527644058968</v>
+        <v>1908.52764405897</v>
       </c>
       <c r="S5" t="n">
-        <v>1800.668514782393</v>
+        <v>1721.298668689324</v>
       </c>
       <c r="T5" t="n">
-        <v>1800.668514782393</v>
+        <v>1496.939722420335</v>
       </c>
       <c r="U5" t="n">
-        <v>1800.668514782393</v>
+        <v>1242.054386134329</v>
       </c>
       <c r="V5" t="n">
-        <v>1800.668514782393</v>
+        <v>905.0751120302702</v>
       </c>
       <c r="W5" t="n">
-        <v>1800.668514782393</v>
+        <v>542.5401818878713</v>
       </c>
       <c r="X5" t="n">
-        <v>1800.668514782393</v>
+        <v>542.5401818878713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1800.668514782393</v>
+        <v>542.5401818878713</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.8330298628528</v>
+        <v>919.2960791133063</v>
       </c>
       <c r="C6" t="n">
-        <v>198.1293571038075</v>
+        <v>757.592406354261</v>
       </c>
       <c r="D6" t="n">
-        <v>59.29072009401958</v>
+        <v>618.7537693444731</v>
       </c>
       <c r="E6" t="n">
-        <v>39.98331861126231</v>
+        <v>471.7257594013444</v>
       </c>
       <c r="F6" t="n">
-        <v>39.98331861126231</v>
+        <v>337.0319613512187</v>
       </c>
       <c r="G6" t="n">
-        <v>39.98331861126231</v>
+        <v>208.3034613745033</v>
       </c>
       <c r="H6" t="n">
-        <v>39.98331861126231</v>
+        <v>108.3656039212013</v>
       </c>
       <c r="I6" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2374651443685</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="K6" t="n">
-        <v>329.7280177045571</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="L6" t="n">
-        <v>329.7280177045571</v>
+        <v>325.0431391786707</v>
       </c>
       <c r="M6" t="n">
-        <v>814.7613712147836</v>
+        <v>810.0764926888971</v>
       </c>
       <c r="N6" t="n">
-        <v>1147.098430717673</v>
+        <v>1304.870060503268</v>
       </c>
       <c r="O6" t="n">
-        <v>1539.298381501824</v>
+        <v>1697.070011287419</v>
       </c>
       <c r="P6" t="n">
-        <v>1841.394300777521</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="Q6" t="n">
-        <v>1999.165930563115</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="R6" t="n">
-        <v>1939.381661658061</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="S6" t="n">
-        <v>1786.582174670801</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="T6" t="n">
-        <v>1597.897070836786</v>
+        <v>1999.165930563116</v>
       </c>
       <c r="U6" t="n">
-        <v>1379.402278435096</v>
+        <v>1938.86532768555</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.00665588343</v>
+        <v>1710.469705133884</v>
       </c>
       <c r="W6" t="n">
-        <v>909.6907871167404</v>
+        <v>1469.153836367194</v>
       </c>
       <c r="X6" t="n">
-        <v>711.7737989945349</v>
+        <v>1271.236848244988</v>
       </c>
       <c r="Y6" t="n">
-        <v>519.2524726441137</v>
+        <v>1078.715521894567</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521.3476056363758</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="C7" t="n">
-        <v>521.3476056363758</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="D7" t="n">
-        <v>368.2757124641385</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="E7" t="n">
-        <v>368.2757124641385</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="F7" t="n">
-        <v>368.2757124641385</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="G7" t="n">
-        <v>199.3559638319885</v>
+        <v>184.1863630085838</v>
       </c>
       <c r="H7" t="n">
-        <v>39.98331861126231</v>
+        <v>184.1863630085838</v>
       </c>
       <c r="I7" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="J7" t="n">
-        <v>39.98331861126231</v>
+        <v>39.98331861126233</v>
       </c>
       <c r="K7" t="n">
-        <v>73.58750635590572</v>
+        <v>73.58750635590575</v>
       </c>
       <c r="L7" t="n">
-        <v>174.1945857561652</v>
+        <v>174.1945857561653</v>
       </c>
       <c r="M7" t="n">
         <v>292.188091883767</v>
@@ -4753,22 +4753,22 @@
         <v>533.5052225108838</v>
       </c>
       <c r="T7" t="n">
-        <v>521.3476056363758</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="U7" t="n">
-        <v>521.3476056363758</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="V7" t="n">
-        <v>521.3476056363758</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="W7" t="n">
-        <v>521.3476056363758</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="X7" t="n">
-        <v>521.3476056363758</v>
+        <v>247.3488210282829</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.3476056363758</v>
+        <v>247.3488210282829</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.1360194934</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.1360194934</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.1360194934</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E8" t="n">
-        <v>950.3502995995073</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>536.1991089096775</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>120.0951223638655</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.677874917562</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.677874917562</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.1360194934</v>
+        <v>2021.822876670703</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>515.4336739462533</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>515.4336739462533</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>61.10109296293086</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1392.878385483472</v>
+        <v>1212.415797122866</v>
       </c>
       <c r="C11" t="n">
-        <v>1121.976086941311</v>
+        <v>941.513498580706</v>
       </c>
       <c r="D11" t="n">
-        <v>860.183582293567</v>
+        <v>941.513498580706</v>
       </c>
       <c r="E11" t="n">
-        <v>576.4293225247061</v>
+        <v>657.7592388118451</v>
       </c>
       <c r="F11" t="n">
-        <v>576.4293225247061</v>
+        <v>354.6395082470476</v>
       </c>
       <c r="G11" t="n">
-        <v>271.3567961039263</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H11" t="n">
         <v>49.56698182626786</v>
@@ -5039,25 +5039,25 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>144.7059349559742</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K11" t="n">
-        <v>493.668241069301</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L11" t="n">
-        <v>950.3755482227914</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M11" t="n">
-        <v>1452.436648544423</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N11" t="n">
-        <v>1830.768007232139</v>
+        <v>1504.302205026507</v>
       </c>
       <c r="O11" t="n">
-        <v>2135.772591704973</v>
+        <v>1918.128723567885</v>
       </c>
       <c r="P11" t="n">
-        <v>2363.929488161026</v>
+        <v>2255.107554092482</v>
       </c>
       <c r="Q11" t="n">
         <v>2458.361741847563</v>
@@ -5069,22 +5069,22 @@
         <v>2478.349091313393</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.349091313393</v>
+        <v>2365.021605169436</v>
       </c>
       <c r="U11" t="n">
-        <v>2455.347354508089</v>
+        <v>2365.021605169436</v>
       </c>
       <c r="V11" t="n">
-        <v>2229.399540529063</v>
+        <v>2139.07379119041</v>
       </c>
       <c r="W11" t="n">
-        <v>2229.399540529063</v>
+        <v>1887.570321173044</v>
       </c>
       <c r="X11" t="n">
-        <v>1958.400860175588</v>
+        <v>1616.571640819569</v>
       </c>
       <c r="Y11" t="n">
-        <v>1675.890464876459</v>
+        <v>1495.427876515853</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.0161906131311</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C12" t="n">
-        <v>677.3125178540859</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D12" t="n">
-        <v>538.4738808442979</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E12" t="n">
-        <v>391.4458709011691</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F12" t="n">
-        <v>256.7520728510435</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G12" t="n">
-        <v>128.0235728743281</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H12" t="n">
-        <v>49.56698182626786</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I12" t="n">
         <v>49.56698182626786</v>
@@ -5145,25 +5145,25 @@
         <v>2418.564822408339</v>
       </c>
       <c r="S12" t="n">
-        <v>2265.765335421079</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T12" t="n">
-        <v>2077.080231587065</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U12" t="n">
-        <v>1858.585439185375</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V12" t="n">
-        <v>1630.189816633709</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W12" t="n">
-        <v>1388.873947867019</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X12" t="n">
-        <v>1190.956959744813</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4356333943921</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>330.5705362755103</v>
+        <v>314.1314426175831</v>
       </c>
       <c r="C13" t="n">
-        <v>271.9860268622228</v>
+        <v>255.5469332042956</v>
       </c>
       <c r="D13" t="n">
-        <v>229.9455938150178</v>
+        <v>213.5065001570906</v>
       </c>
       <c r="E13" t="n">
-        <v>188.9680397013689</v>
+        <v>172.5289460434417</v>
       </c>
       <c r="F13" t="n">
-        <v>188.9680397013689</v>
+        <v>131.079751194251</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0797511942511</v>
+        <v>131.079751194251</v>
       </c>
       <c r="H13" t="n">
-        <v>82.73856609855711</v>
+        <v>82.73856609855707</v>
       </c>
       <c r="I13" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52681635684266</v>
+        <v>99.52681635684257</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9529381700302</v>
+        <v>241.9529381700301</v>
       </c>
       <c r="L13" t="n">
-        <v>451.3819516388338</v>
+        <v>451.3819516388337</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349796</v>
+        <v>678.1973918349794</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531241</v>
+        <v>905.4416676531239</v>
       </c>
       <c r="O13" t="n">
         <v>1112.727248217358</v>
@@ -5218,31 +5218,31 @@
         <v>1284.51766601404</v>
       </c>
       <c r="Q13" t="n">
-        <v>1355.569151829065</v>
+        <v>1355.569151829064</v>
       </c>
       <c r="R13" t="n">
-        <v>1355.569151829065</v>
+        <v>1317.078830568475</v>
       </c>
       <c r="S13" t="n">
-        <v>1252.890849357784</v>
+        <v>1214.400528097195</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.743356298495</v>
+        <v>1092.253035037906</v>
       </c>
       <c r="U13" t="n">
-        <v>954.5845769126272</v>
+        <v>916.094255652038</v>
       </c>
       <c r="V13" t="n">
-        <v>804.880732596082</v>
+        <v>766.3904113354929</v>
       </c>
       <c r="W13" t="n">
-        <v>634.3191474971405</v>
+        <v>591.2654699779245</v>
       </c>
       <c r="X13" t="n">
-        <v>514.0981435175486</v>
+        <v>497.6590498596212</v>
       </c>
       <c r="Y13" t="n">
-        <v>403.0944448348579</v>
+        <v>386.6553511769307</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1190.45404200175</v>
+        <v>1486.881556172281</v>
       </c>
       <c r="C14" t="n">
-        <v>919.5517434595893</v>
+        <v>1486.881556172281</v>
       </c>
       <c r="D14" t="n">
-        <v>657.7592388118451</v>
+        <v>1225.089051524536</v>
       </c>
       <c r="E14" t="n">
-        <v>657.7592388118451</v>
+        <v>941.3347917556755</v>
       </c>
       <c r="F14" t="n">
-        <v>354.6395082470476</v>
+        <v>638.215061190878</v>
       </c>
       <c r="G14" t="n">
-        <v>49.56698182626786</v>
+        <v>333.1425347700983</v>
       </c>
       <c r="H14" t="n">
-        <v>49.56698182626786</v>
+        <v>111.3527204924396</v>
       </c>
       <c r="I14" t="n">
         <v>49.56698182626786</v>
@@ -5279,19 +5279,19 @@
         <v>230.3874601676176</v>
       </c>
       <c r="K14" t="n">
-        <v>579.3497662809444</v>
+        <v>579.3497662809446</v>
       </c>
       <c r="L14" t="n">
-        <v>1036.057073434435</v>
+        <v>927.2351393658907</v>
       </c>
       <c r="M14" t="n">
-        <v>1452.436648544423</v>
+        <v>1320.474305618979</v>
       </c>
       <c r="N14" t="n">
-        <v>1830.768007232139</v>
+        <v>1698.805664306694</v>
       </c>
       <c r="O14" t="n">
-        <v>2135.772591704973</v>
+        <v>2026.950657636429</v>
       </c>
       <c r="P14" t="n">
         <v>2363.929488161026</v>
@@ -5303,25 +5303,25 @@
         <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.349091313393</v>
+        <v>2402.15157606878</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.021605169436</v>
+        <v>2288.824089924823</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.021605169436</v>
+        <v>2144.970213763849</v>
       </c>
       <c r="V14" t="n">
-        <v>2139.07379119041</v>
+        <v>2052.404030864397</v>
       </c>
       <c r="W14" t="n">
-        <v>1887.570321173043</v>
+        <v>2052.404030864397</v>
       </c>
       <c r="X14" t="n">
-        <v>1616.571640819569</v>
+        <v>2052.404030864397</v>
       </c>
       <c r="Y14" t="n">
-        <v>1334.061245520439</v>
+        <v>1769.893635565267</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>49.56698182626786</v>
       </c>
       <c r="K15" t="n">
-        <v>264.160746664487</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346027</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.015945344829</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.281591467951</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252102</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.577461527799</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q15" t="n">
         <v>2478.349091313393</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>287.5168587562939</v>
+        <v>372.019731124701</v>
       </c>
       <c r="C16" t="n">
-        <v>228.9323493430065</v>
+        <v>313.4352217114135</v>
       </c>
       <c r="D16" t="n">
-        <v>186.8919162958015</v>
+        <v>271.3947886642085</v>
       </c>
       <c r="E16" t="n">
-        <v>145.9143621821525</v>
+        <v>230.4172345505596</v>
       </c>
       <c r="F16" t="n">
-        <v>145.9143621821525</v>
+        <v>188.9680397013688</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0797511942511</v>
+        <v>131.079751194251</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855711</v>
+        <v>82.7385660985571</v>
       </c>
       <c r="I16" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>99.52681635684252</v>
+        <v>99.52681635684266</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9529381700301</v>
+        <v>241.9529381700302</v>
       </c>
       <c r="L16" t="n">
-        <v>451.3819516388336</v>
+        <v>451.3819516388339</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349795</v>
+        <v>678.1973918349797</v>
       </c>
       <c r="N16" t="n">
-        <v>905.441667653124</v>
+        <v>905.4416676531241</v>
       </c>
       <c r="O16" t="n">
         <v>1112.727248217358</v>
@@ -5455,31 +5455,31 @@
         <v>1284.51766601404</v>
       </c>
       <c r="Q16" t="n">
-        <v>1355.569151829064</v>
+        <v>1355.569151829066</v>
       </c>
       <c r="R16" t="n">
-        <v>1317.078830568475</v>
+        <v>1317.078830568476</v>
       </c>
       <c r="S16" t="n">
-        <v>1214.400528097195</v>
+        <v>1214.400528097196</v>
       </c>
       <c r="T16" t="n">
-        <v>1092.253035037906</v>
+        <v>1092.253035037907</v>
       </c>
       <c r="U16" t="n">
-        <v>916.0942556520378</v>
+        <v>916.094255652039</v>
       </c>
       <c r="V16" t="n">
-        <v>766.3904113354928</v>
+        <v>850.8932837038997</v>
       </c>
       <c r="W16" t="n">
-        <v>591.2654699779241</v>
+        <v>675.7683423463311</v>
       </c>
       <c r="X16" t="n">
-        <v>471.044465998332</v>
+        <v>555.5473383667393</v>
       </c>
       <c r="Y16" t="n">
-        <v>360.0407673156414</v>
+        <v>444.5436396840486</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936776</v>
+        <v>916.1603581936771</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909884</v>
+        <v>694.191837090988</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923627</v>
+        <v>452.8578451923622</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
@@ -5513,34 +5513,34 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5655260990735</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K17" t="n">
-        <v>361.7058981438563</v>
+        <v>531.0840346791152</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5912712288025</v>
+        <v>878.9694077640615</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.83043748189</v>
+        <v>1272.208574017149</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.161796169606</v>
+        <v>1770.211804765424</v>
       </c>
       <c r="O17" t="n">
-        <v>1786.16638064244</v>
+        <v>2075.216389238258</v>
       </c>
       <c r="P17" t="n">
-        <v>2183.701413633752</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q17" t="n">
-        <v>2447.511803855548</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S17" t="n">
-        <v>2463.937314734952</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T17" t="n">
         <v>2412.395567257166</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>839.0161906131311</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C18" t="n">
-        <v>677.3125178540859</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D18" t="n">
-        <v>538.4738808442979</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E18" t="n">
-        <v>391.4458709011691</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F18" t="n">
-        <v>256.7520728510435</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G18" t="n">
-        <v>128.0235728743281</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H18" t="n">
         <v>117.9492671362069</v>
@@ -5592,52 +5592,52 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K18" t="n">
-        <v>339.3116809195627</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L18" t="n">
-        <v>705.1335260896783</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.166879599905</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.432525723027</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.632476507178</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P18" t="n">
-        <v>2320.577461527799</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q18" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
-        <v>2418.564822408339</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S18" t="n">
-        <v>2265.765335421079</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T18" t="n">
-        <v>2077.080231587065</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U18" t="n">
-        <v>1858.585439185375</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V18" t="n">
-        <v>1630.189816633709</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W18" t="n">
-        <v>1388.873947867019</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X18" t="n">
-        <v>1190.956959744813</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4356333943921</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="19">
@@ -5659,40 +5659,40 @@
         <v>49.56698182626786</v>
       </c>
       <c r="F19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080454</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="R19" t="n">
         <v>584.843044309075</v>
@@ -5716,7 +5716,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.283684051238</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.167124175249</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936765</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E20" t="n">
-        <v>694.1918370909874</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923618</v>
+        <v>452.8578451923627</v>
       </c>
       <c r="G20" t="n">
-        <v>209.5710574377538</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626724</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
-        <v>290.9436626343325</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>700.4621712143743</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L20" t="n">
-        <v>1048.347544299321</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M20" t="n">
-        <v>1441.586710552408</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N20" t="n">
-        <v>1819.918069240124</v>
+        <v>1481.161796169606</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.922653712958</v>
+        <v>1786.16638064244</v>
       </c>
       <c r="P20" t="n">
-        <v>2353.079550169011</v>
+        <v>2133.995149159053</v>
       </c>
       <c r="Q20" t="n">
-        <v>2447.511803855548</v>
+        <v>2397.805539380849</v>
       </c>
       <c r="R20" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.937314734952</v>
       </c>
       <c r="T20" t="n">
         <v>2412.395567257166</v>
       </c>
       <c r="U20" t="n">
-        <v>2330.327429762363</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.165354449508</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W20" t="n">
-        <v>1976.447623098314</v>
+        <v>1976.447623098315</v>
       </c>
       <c r="X20" t="n">
-        <v>1767.234681411011</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.510024778053</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131302</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C21" t="n">
-        <v>677.3125178540849</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D21" t="n">
-        <v>538.473880844297</v>
+        <v>538.4738808442979</v>
       </c>
       <c r="E21" t="n">
-        <v>391.4458709011682</v>
+        <v>391.4458709011691</v>
       </c>
       <c r="F21" t="n">
-        <v>256.7520728510426</v>
+        <v>256.7520728510435</v>
       </c>
       <c r="G21" t="n">
-        <v>128.0235728743272</v>
+        <v>128.0235728743281</v>
       </c>
       <c r="H21" t="n">
-        <v>49.56698182626785</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I21" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J21" t="n">
         <v>109.821128359374</v>
@@ -5841,40 +5841,40 @@
         <v>1190.166879599905</v>
       </c>
       <c r="N21" t="n">
-        <v>1626.28159146795</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P21" t="n">
-        <v>2320.577461527798</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q21" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.564822408338</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S21" t="n">
-        <v>2265.765335421078</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
-        <v>2077.080231587064</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U21" t="n">
-        <v>1858.585439185374</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V21" t="n">
-        <v>1630.189816633708</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W21" t="n">
-        <v>1388.873947867018</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.956959744812</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943912</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="F22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="G22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="H22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="I22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="J22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="K22" t="n">
-        <v>83.17116957091126</v>
+        <v>86.38798680778594</v>
       </c>
       <c r="L22" t="n">
-        <v>183.7782489711708</v>
+        <v>186.9950662080454</v>
       </c>
       <c r="M22" t="n">
-        <v>301.7717550987725</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N22" t="n">
-        <v>420.1940968483729</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O22" t="n">
-        <v>518.6577433440625</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P22" t="n">
-        <v>581.6262270722003</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S22" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T22" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U22" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V22" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W22" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X22" t="n">
         <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.30515171944369</v>
+        <v>60.3051517194437</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1116.167124175249</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936765</v>
+        <v>916.1603581936771</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909875</v>
+        <v>694.191837090988</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923618</v>
+        <v>452.8578451923627</v>
       </c>
       <c r="G23" t="n">
-        <v>209.571057437754</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J23" t="n">
         <v>121.5655260990735</v>
       </c>
       <c r="K23" t="n">
-        <v>361.7058981438563</v>
+        <v>531.0840346791153</v>
       </c>
       <c r="L23" t="n">
-        <v>709.5912712288025</v>
+        <v>998.6412798246204</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.83043748189</v>
+        <v>1391.880446077708</v>
       </c>
       <c r="N23" t="n">
-        <v>1600.833668230164</v>
+        <v>1770.211804765424</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.216389238257</v>
+        <v>2075.216389238258</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.37328569431</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q23" t="n">
-        <v>2397.805539380847</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S23" t="n">
-        <v>2463.93731473495</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T23" t="n">
-        <v>2412.395567257165</v>
+        <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762363</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V23" t="n">
-        <v>2166.165354449508</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W23" t="n">
-        <v>1976.447623098313</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411011</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y23" t="n">
         <v>1546.510024778053</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G24" t="n">
         <v>217.8871245895088</v>
@@ -6063,55 +6063,55 @@
         <v>117.9492671362069</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J24" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K24" t="n">
-        <v>264.1607466644857</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L24" t="n">
-        <v>629.9825918346013</v>
+        <v>629.9825918346022</v>
       </c>
       <c r="M24" t="n">
-        <v>1115.015945344828</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.28159146795</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O24" t="n">
         <v>2018.481542252101</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527798</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R24" t="n">
-        <v>2478.349091313392</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S24" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626784</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626784</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="I25" t="n">
-        <v>49.56698182626784</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="J25" t="n">
-        <v>49.56698182626784</v>
+        <v>52.78379906314252</v>
       </c>
       <c r="K25" t="n">
-        <v>83.17116957091125</v>
+        <v>86.38798680778594</v>
       </c>
       <c r="L25" t="n">
-        <v>183.7782489711707</v>
+        <v>186.9950662080454</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7717550987725</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N25" t="n">
-        <v>423.4109140852474</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O25" t="n">
-        <v>521.8745605809371</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P25" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q25" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R25" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S25" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T25" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U25" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V25" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X25" t="n">
         <v>109.5231117359626</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.30515171944368</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1525.004300822132</v>
+        <v>1685.848684014687</v>
       </c>
       <c r="C26" t="n">
-        <v>1257.646466910706</v>
+        <v>1418.490850103261</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.484084121689</v>
+        <v>1160.242810086251</v>
       </c>
       <c r="E26" t="n">
-        <v>938.274288983562</v>
+        <v>880.0330149481244</v>
       </c>
       <c r="F26" t="n">
-        <v>638.6990230494987</v>
+        <v>580.4577490140612</v>
       </c>
       <c r="G26" t="n">
-        <v>337.1709612594532</v>
+        <v>278.9296872240156</v>
       </c>
       <c r="H26" t="n">
-        <v>118.9256116125289</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="I26" t="n">
-        <v>60.6843375770913</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="J26" t="n">
         <v>244.9787457030236</v>
       </c>
       <c r="K26" t="n">
-        <v>597.4149816009331</v>
+        <v>597.4149816009329</v>
       </c>
       <c r="L26" t="n">
         <v>1057.596218539006</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.13124864522</v>
+        <v>1555.647050888504</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.758471186063</v>
+        <v>2046.274273429347</v>
       </c>
       <c r="O26" t="n">
-        <v>2463.574721755309</v>
+        <v>2463.574721755307</v>
       </c>
       <c r="P26" t="n">
-        <v>2804.027482064489</v>
+        <v>2804.027482064487</v>
       </c>
       <c r="Q26" t="n">
-        <v>3010.755599604152</v>
+        <v>3010.755599604151</v>
       </c>
       <c r="R26" t="n">
-        <v>3034.216878854565</v>
+        <v>3034.216878854564</v>
       </c>
       <c r="S26" t="n">
-        <v>2961.563828240686</v>
+        <v>3034.216878854564</v>
       </c>
       <c r="T26" t="n">
-        <v>2961.563828240686</v>
+        <v>2924.433857341341</v>
       </c>
       <c r="U26" t="n">
-        <v>2821.254416710446</v>
+        <v>2784.124445811101</v>
       </c>
       <c r="V26" t="n">
-        <v>2598.851067362154</v>
+        <v>2561.721096462809</v>
       </c>
       <c r="W26" t="n">
-        <v>2350.892061975521</v>
+        <v>2313.762091076177</v>
       </c>
       <c r="X26" t="n">
-        <v>2083.437846252781</v>
+        <v>2046.307875353436</v>
       </c>
       <c r="Y26" t="n">
-        <v>1804.471915584385</v>
+        <v>1965.31629877694</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.9970980791353</v>
+        <v>925.2844806190308</v>
       </c>
       <c r="C27" t="n">
-        <v>778.29342532009</v>
+        <v>763.5808078599855</v>
       </c>
       <c r="D27" t="n">
-        <v>639.4547883103021</v>
+        <v>624.7421708501976</v>
       </c>
       <c r="E27" t="n">
-        <v>492.4267783671734</v>
+        <v>477.7141609070688</v>
       </c>
       <c r="F27" t="n">
-        <v>357.7329803170477</v>
+        <v>343.0203628569432</v>
       </c>
       <c r="G27" t="n">
-        <v>229.0044803403322</v>
+        <v>214.2918628802277</v>
       </c>
       <c r="H27" t="n">
         <v>129.0666228870303</v>
       </c>
       <c r="I27" t="n">
-        <v>60.6843375770913</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="J27" t="n">
         <v>120.9384841101974</v>
@@ -6327,28 +6327,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.545729874343</v>
+        <v>2504.833112414238</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.746242887083</v>
+        <v>2352.033625426979</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.061139053068</v>
+        <v>2163.348521592964</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.566346651379</v>
+        <v>1944.853729191274</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.170724099713</v>
+        <v>1716.458106639608</v>
       </c>
       <c r="W27" t="n">
-        <v>1489.854855333023</v>
+        <v>1475.142237872918</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.937867210817</v>
+        <v>1277.225249750713</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.416540860396</v>
+        <v>1084.703923400292</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.325834460385</v>
+        <v>358.3258344603848</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2857896778318</v>
+        <v>303.2857896778314</v>
       </c>
       <c r="D28" t="n">
-        <v>264.789821261361</v>
+        <v>264.7898212613607</v>
       </c>
       <c r="E28" t="n">
-        <v>227.3567317784463</v>
+        <v>227.3567317784459</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4520015599898</v>
+        <v>189.4520015599894</v>
       </c>
       <c r="G28" t="n">
-        <v>135.1081776836062</v>
+        <v>135.1081776836058</v>
       </c>
       <c r="H28" t="n">
-        <v>90.31145721864644</v>
+        <v>90.31145721864635</v>
       </c>
       <c r="I28" t="n">
-        <v>60.6843375770913</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="J28" t="n">
-        <v>114.1181018922487</v>
+        <v>114.1181018922483</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0181534900187</v>
+        <v>260.0181534900184</v>
       </c>
       <c r="L28" t="n">
-        <v>472.9210967434049</v>
+        <v>472.9210967434041</v>
       </c>
       <c r="M28" t="n">
-        <v>703.2104667241332</v>
+        <v>703.2104667241324</v>
       </c>
       <c r="N28" t="n">
-        <v>933.9286723268604</v>
+        <v>933.9286723268594</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.688182675677</v>
+        <v>1144.688182675676</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.952530256941</v>
+        <v>1319.95253025694</v>
       </c>
       <c r="Q28" t="n">
         <v>1394.477945856548</v>
@@ -6415,19 +6415,19 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024586</v>
+        <v>969.1809082024581</v>
       </c>
       <c r="V28" t="n">
-        <v>823.0215285166475</v>
+        <v>823.0215285166471</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4410517898129</v>
+        <v>651.4410517898126</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409551</v>
+        <v>534.7645124409547</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.3052783889984</v>
+        <v>427.3052783889982</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1487.874329922789</v>
+        <v>1685.848684014688</v>
       </c>
       <c r="C29" t="n">
-        <v>1220.516496011363</v>
+        <v>1418.490850103261</v>
       </c>
       <c r="D29" t="n">
-        <v>962.268455994353</v>
+        <v>1160.242810086251</v>
       </c>
       <c r="E29" t="n">
-        <v>682.0586608562262</v>
+        <v>880.0330149481247</v>
       </c>
       <c r="F29" t="n">
-        <v>638.6990230494988</v>
+        <v>580.4577490140614</v>
       </c>
       <c r="G29" t="n">
-        <v>337.1709612594532</v>
+        <v>278.9296872240156</v>
       </c>
       <c r="H29" t="n">
-        <v>118.9256116125289</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="I29" t="n">
-        <v>60.6843375770913</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="J29" t="n">
-        <v>244.9787457030236</v>
+        <v>237.4945479463071</v>
       </c>
       <c r="K29" t="n">
-        <v>597.4149816009331</v>
+        <v>589.9307838442165</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.112020782291</v>
+        <v>1050.112020782289</v>
       </c>
       <c r="M29" t="n">
-        <v>1555.647050888506</v>
+        <v>1555.647050888504</v>
       </c>
       <c r="N29" t="n">
-        <v>2046.274273429348</v>
+        <v>2046.274273429347</v>
       </c>
       <c r="O29" t="n">
-        <v>2463.574721755309</v>
+        <v>2463.574721755307</v>
       </c>
       <c r="P29" t="n">
-        <v>2804.027482064489</v>
+        <v>2804.027482064487</v>
       </c>
       <c r="Q29" t="n">
-        <v>3010.755599604152</v>
+        <v>3010.755599604151</v>
       </c>
       <c r="R29" t="n">
-        <v>3034.216878854565</v>
+        <v>3034.216878854564</v>
       </c>
       <c r="S29" t="n">
-        <v>3034.216878854565</v>
+        <v>3034.216878854564</v>
       </c>
       <c r="T29" t="n">
-        <v>2924.433857341343</v>
+        <v>3034.216878854564</v>
       </c>
       <c r="U29" t="n">
-        <v>2784.124445811103</v>
+        <v>2982.098799903001</v>
       </c>
       <c r="V29" t="n">
-        <v>2561.721096462811</v>
+        <v>2759.695450554709</v>
       </c>
       <c r="W29" t="n">
-        <v>2313.762091076178</v>
+        <v>2511.736445168076</v>
       </c>
       <c r="X29" t="n">
-        <v>2046.307875353438</v>
+        <v>2244.282229445336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.341944685042</v>
+        <v>1965.316298776941</v>
       </c>
     </row>
     <row r="30">
@@ -6531,13 +6531,13 @@
         <v>343.0203628569432</v>
       </c>
       <c r="G30" t="n">
-        <v>214.2918628802277</v>
+        <v>229.0044803403322</v>
       </c>
       <c r="H30" t="n">
         <v>129.0666228870303</v>
       </c>
       <c r="I30" t="n">
-        <v>60.6843375770913</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="J30" t="n">
         <v>120.9384841101974</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.3258344603847</v>
+        <v>358.3258344603852</v>
       </c>
       <c r="C31" t="n">
-        <v>303.2857896778314</v>
+        <v>303.2857896778319</v>
       </c>
       <c r="D31" t="n">
-        <v>264.7898212613606</v>
+        <v>264.7898212613611</v>
       </c>
       <c r="E31" t="n">
-        <v>227.3567317784459</v>
+        <v>227.3567317784464</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4520015599898</v>
+        <v>189.4520015599899</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1081776836062</v>
+        <v>135.1081776836063</v>
       </c>
       <c r="H31" t="n">
-        <v>90.31145721864641</v>
+        <v>90.31145721864635</v>
       </c>
       <c r="I31" t="n">
-        <v>60.6843375770913</v>
+        <v>60.68433757709128</v>
       </c>
       <c r="J31" t="n">
-        <v>114.1181018922484</v>
+        <v>114.1181018922486</v>
       </c>
       <c r="K31" t="n">
-        <v>260.0181534900184</v>
+        <v>260.0181534900187</v>
       </c>
       <c r="L31" t="n">
-        <v>472.9210967434043</v>
+        <v>472.9210967434046</v>
       </c>
       <c r="M31" t="n">
-        <v>703.2104667241326</v>
+        <v>703.2104667241333</v>
       </c>
       <c r="N31" t="n">
-        <v>933.9286723268597</v>
+        <v>933.9286723268604</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.688182675676</v>
+        <v>1144.688182675677</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.95253025694</v>
+        <v>1319.952530256941</v>
       </c>
       <c r="Q31" t="n">
         <v>1394.477945856548</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.532089226692</v>
+        <v>1359.532089226693</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.398251386146</v>
+        <v>1260.398251386147</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.795222957591</v>
+        <v>1141.795222957592</v>
       </c>
       <c r="U31" t="n">
-        <v>969.180908202458</v>
+        <v>969.1809082024585</v>
       </c>
       <c r="V31" t="n">
-        <v>823.021528516647</v>
+        <v>823.0215285166474</v>
       </c>
       <c r="W31" t="n">
-        <v>651.4410517898125</v>
+        <v>651.4410517898129</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7645124409546</v>
+        <v>534.7645124409551</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.3052783889981</v>
+        <v>427.3052783889986</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941252</v>
+        <v>821.8667872941254</v>
       </c>
       <c r="F32" t="n">
-        <v>550.8831624099369</v>
+        <v>550.8831624099371</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9467416697662</v>
+        <v>277.9467416697664</v>
       </c>
       <c r="H32" t="n">
         <v>88.29303307271701</v>
@@ -6698,22 +6698,22 @@
         <v>58.64340008715438</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9604756060691</v>
+        <v>130.64194435996</v>
       </c>
       <c r="K32" t="n">
-        <v>651.419378896961</v>
+        <v>370.7823164047428</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.623283228016</v>
+        <v>858.986220735798</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.862449481104</v>
+        <v>1313.486839426748</v>
       </c>
       <c r="N32" t="n">
-        <v>1972.455260606681</v>
+        <v>1832.136729360573</v>
       </c>
       <c r="O32" t="n">
-        <v>2417.778376325624</v>
+        <v>2277.459845079516</v>
       </c>
       <c r="P32" t="n">
         <v>2645.935272781678</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9561605891985</v>
+        <v>923.243543129094</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2524878301532</v>
+        <v>761.5398703700487</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4138508203653</v>
+        <v>622.7012333602607</v>
       </c>
       <c r="E33" t="n">
-        <v>490.3858408772364</v>
+        <v>475.673223417132</v>
       </c>
       <c r="F33" t="n">
-        <v>355.6920428271108</v>
+        <v>340.9794253670063</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9635428503954</v>
+        <v>212.2509253902909</v>
       </c>
       <c r="H33" t="n">
-        <v>127.0256853970934</v>
+        <v>112.313067936989</v>
       </c>
       <c r="I33" t="n">
         <v>58.64340008715438</v>
@@ -6801,28 +6801,28 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.504792384406</v>
+        <v>2502.792174924301</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.705305397146</v>
+        <v>2349.992687937042</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.020201563132</v>
+        <v>2161.307584103027</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.525409161442</v>
+        <v>1942.812791701337</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.129786609776</v>
+        <v>1714.417169149671</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.813917843086</v>
+        <v>1473.101300382981</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.896929720881</v>
+        <v>1275.184312260776</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.375603370459</v>
+        <v>1082.662985910355</v>
       </c>
     </row>
     <row r="34">
@@ -6868,13 +6868,13 @@
         <v>310.848173359659</v>
       </c>
       <c r="N34" t="n">
-        <v>530.6720071060856</v>
+        <v>569.5890463553685</v>
       </c>
       <c r="O34" t="n">
-        <v>769.4541848478844</v>
+        <v>808.3712240971672</v>
       </c>
       <c r="P34" t="n">
-        <v>832.4226685760223</v>
+        <v>871.339707825305</v>
       </c>
       <c r="Q34" t="n">
         <v>934.9707515686119</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C35" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478538</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614929</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791955</v>
       </c>
       <c r="G35" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409157</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I35" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>692.1751396617389</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>1155.869458548059</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M35" t="n">
-        <v>1549.108624801147</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N35" t="n">
-        <v>1927.439983488862</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961696</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.601464417749</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
+        <v>2479.400528215968</v>
+      </c>
+      <c r="R35" t="n">
         <v>2555.033718104286</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W35" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X35" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208573</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749095</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
         <v>51.10067436208573</v>
@@ -7099,46 +7099,46 @@
         <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686424</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962442</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458446</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415342</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916212</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433853</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478536</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614927</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791953</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
-        <v>221.1248745409154</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575679</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479478</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927306</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776769</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930765</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.5005000384</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7199,19 +7199,19 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
         <v>2479.060069480717</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
         <v>219.4208171253267</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749097</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672917</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7345,37 +7345,37 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146876</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916212</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433856</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1361.88781257276</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C41" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478546</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614937</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G41" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.1107366457575</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N41" t="n">
-        <v>1482.695488705424</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>1827.875829091314</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.5005000384</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7442,19 +7442,19 @@
         <v>2479.060069480717</v>
       </c>
       <c r="U41" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V41" t="n">
-        <v>2222.809732105718</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W41" t="n">
-        <v>2028.081938470851</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.858934499877</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583247</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.3548208951924</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553811</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254967</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749097</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>130.9236227683829</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686424</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962442</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458446</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415342</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.378680269672</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.378680269672</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R43" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916212</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433856</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572757</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413097</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478543</v>
+        <v>942.7443621478531</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614921</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791947</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409152</v>
       </c>
       <c r="H44" t="n">
-        <v>56.1107366457575</v>
+        <v>56.11073664575743</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208571</v>
       </c>
       <c r="J44" t="n">
-        <v>238.9081644362658</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>643.516310972081</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>1155.86945854806</v>
+        <v>915.7684941687073</v>
       </c>
       <c r="M44" t="n">
-        <v>1549.108624801147</v>
+        <v>1309.007660421795</v>
       </c>
       <c r="N44" t="n">
-        <v>1927.439983488863</v>
+        <v>1687.339019109511</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582345</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038398</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215967</v>
       </c>
       <c r="R44" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242172</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480715</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702241</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105715</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470848</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499874</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583244</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208571</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749097</v>
+        <v>54.02211951749088</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670344</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208571</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208571</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208571</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208575</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672917</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415342</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P46" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916212</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433856</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>393.0987406515001</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>317.3222226361511</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,10 +8064,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>231.1673670204513</v>
+        <v>292.030141296317</v>
       </c>
       <c r="N3" t="n">
-        <v>606.506623708487</v>
+        <v>606.5066237084874</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>214.1956165718044</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>393.0987406515014</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>400.5146462654997</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>442.4091405655761</v>
+        <v>606.5066237084875</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -9006,7 +9006,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>328.7575477911305</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313817</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>338.0915646308313</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>547.2350520455319</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555166</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>267.8947735152643</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>467.0451885692747</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.918345942532</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>259.1745796012667</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>300.0885332591495</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I11" t="n">
-        <v>61.16788127951003</v>
+        <v>61.16788127951001</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.43554009216776</v>
+        <v>75.43554009216764</v>
       </c>
       <c r="T11" t="n">
-        <v>112.194211282517</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.6436179621126</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>248.9884353171931</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>159.7529646854601</v>
       </c>
     </row>
     <row r="12">
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.03470290069873</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.30940562204655</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.10541804798365</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.517722696040937</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>26.3484380226759</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>138.0108271155544</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.1932755567387</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>280.9167171711723</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5719161348819</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.16788127951003</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.43554009216766</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>142.415337399364</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>132.0478147687784</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>248.988435317193</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.2886935499396</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.03470290069873</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.62314074402414</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>83.65784364472172</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>216.8948006557127</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>195.9946105509804</v>
       </c>
     </row>
     <row r="27">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>253.6534718460626</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>87.30941925289035</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727210.913098922</v>
+        <v>727210.9130989221</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806005.2635188906</v>
+        <v>806005.2635188908</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778793.287791392</v>
+        <v>778793.2877913918</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778793.287791392</v>
+        <v>778793.2877913918</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>537336.8423459274</v>
       </c>
       <c r="C2" t="n">
-        <v>537336.8423459274</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="D2" t="n">
         <v>537336.8423459274</v>
       </c>
       <c r="E2" t="n">
-        <v>484807.2753992813</v>
+        <v>484807.2753992815</v>
       </c>
       <c r="F2" t="n">
-        <v>484807.2753992813</v>
+        <v>484807.2753992816</v>
       </c>
       <c r="G2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="H2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="I2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="J2" t="n">
-        <v>519195.5251942615</v>
+        <v>519195.5251942612</v>
       </c>
       <c r="K2" t="n">
         <v>519195.5251942615</v>
       </c>
       <c r="L2" t="n">
-        <v>537336.842345928</v>
+        <v>537336.8423459277</v>
       </c>
       <c r="M2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="N2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="O2" t="n">
+        <v>537336.8423459276</v>
+      </c>
+      <c r="P2" t="n">
         <v>537336.8423459274</v>
-      </c>
-      <c r="P2" t="n">
-        <v>537336.8423459275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167491.6210370257</v>
+        <v>167491.6210370258</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156238831</v>
+        <v>7924.705156238731</v>
       </c>
       <c r="E3" t="n">
         <v>116088.0659382699</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48934.30502360802</v>
+        <v>48934.30502360801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71578.88473510899</v>
+        <v>71578.88473510898</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589758</v>
+        <v>19514.5399958976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193715.4283817836</v>
+        <v>193715.4283817835</v>
       </c>
       <c r="C4" t="n">
-        <v>193715.4283817836</v>
+        <v>193715.4283817835</v>
       </c>
       <c r="D4" t="n">
         <v>186869.8681107116</v>
       </c>
       <c r="E4" t="n">
-        <v>135869.0602896288</v>
+        <v>135869.0602896289</v>
       </c>
       <c r="F4" t="n">
         <v>135869.0602896288</v>
@@ -26439,16 +26439,16 @@
         <v>178460.4520176483</v>
       </c>
       <c r="J4" t="n">
-        <v>162692.6416962862</v>
+        <v>162692.6416962861</v>
       </c>
       <c r="K4" t="n">
-        <v>162692.6416962862</v>
+        <v>162692.6416962861</v>
       </c>
       <c r="L4" t="n">
         <v>177238.7456399961</v>
       </c>
       <c r="M4" t="n">
-        <v>176763.7323523438</v>
+        <v>176763.7323523439</v>
       </c>
       <c r="N4" t="n">
         <v>176763.7323523439</v>
@@ -26457,7 +26457,7 @@
         <v>176763.7323523439</v>
       </c>
       <c r="P4" t="n">
-        <v>176763.7323523439</v>
+        <v>176763.7323523438</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64014.92214455934</v>
+        <v>64014.92214455936</v>
       </c>
       <c r="C5" t="n">
-        <v>64014.92214455934</v>
+        <v>64014.92214455937</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26482,34 +26482,34 @@
         <v>46911.8669710024</v>
       </c>
       <c r="G5" t="n">
+        <v>52054.18958228952</v>
+      </c>
+      <c r="H5" t="n">
         <v>52054.18958228953</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>52054.18958228952</v>
       </c>
-      <c r="I5" t="n">
-        <v>52054.1895822895</v>
-      </c>
       <c r="J5" t="n">
-        <v>55656.05714269899</v>
+        <v>55656.05714269896</v>
       </c>
       <c r="K5" t="n">
-        <v>55656.05714269898</v>
+        <v>55656.05714269896</v>
       </c>
       <c r="L5" t="n">
         <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264635</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112114.8707825588</v>
+        <v>112114.8707825587</v>
       </c>
       <c r="C6" t="n">
-        <v>279606.4918195845</v>
+        <v>279606.4918195844</v>
       </c>
       <c r="D6" t="n">
-        <v>276976.2344420655</v>
+        <v>276976.2344420656</v>
       </c>
       <c r="E6" t="n">
-        <v>185938.2822003802</v>
+        <v>185750.6766041424</v>
       </c>
       <c r="F6" t="n">
-        <v>302026.3481386501</v>
+        <v>301838.7425424122</v>
       </c>
       <c r="G6" t="n">
-        <v>257887.8957223816</v>
+        <v>257887.8957223815</v>
       </c>
       <c r="H6" t="n">
-        <v>306822.2007459895</v>
+        <v>306822.2007459897</v>
       </c>
       <c r="I6" t="n">
-        <v>306822.2007459894</v>
+        <v>306822.2007459896</v>
       </c>
       <c r="J6" t="n">
-        <v>91909.68843739771</v>
+        <v>91844.89801899878</v>
       </c>
       <c r="K6" t="n">
-        <v>300846.8263552763</v>
+        <v>300782.0359368776</v>
       </c>
       <c r="L6" t="n">
-        <v>232034.6333557683</v>
+        <v>232034.633355768</v>
       </c>
       <c r="M6" t="n">
-        <v>288255.7531050397</v>
+        <v>288255.7531050398</v>
       </c>
       <c r="N6" t="n">
-        <v>307770.2931009373</v>
+        <v>307770.2931009374</v>
       </c>
       <c r="O6" t="n">
-        <v>265960.4657179782</v>
+        <v>265960.4657179784</v>
       </c>
       <c r="P6" t="n">
-        <v>307770.2931009373</v>
+        <v>307770.2931009372</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.7914826407788</v>
+        <v>499.7914826407791</v>
       </c>
       <c r="C4" t="n">
-        <v>499.7914826407788</v>
+        <v>499.7914826407791</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26802,19 +26802,19 @@
         <v>619.5872728283483</v>
       </c>
       <c r="G4" t="n">
+        <v>619.5872728283482</v>
+      </c>
+      <c r="H4" t="n">
         <v>619.5872728283483</v>
       </c>
-      <c r="H4" t="n">
-        <v>619.5872728283481</v>
-      </c>
       <c r="I4" t="n">
-        <v>619.587272828348</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="J4" t="n">
-        <v>758.5542197136413</v>
+        <v>758.5542197136409</v>
       </c>
       <c r="K4" t="n">
-        <v>758.5542197136413</v>
+        <v>758.5542197136409</v>
       </c>
       <c r="L4" t="n">
         <v>733.0425010894297</v>
@@ -26823,13 +26823,13 @@
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260714</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.16788127951003</v>
+        <v>61.16788127951001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.47360591888624</v>
+        <v>89.47360591888622</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487197</v>
+        <v>24.393174994872</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.7914826407788</v>
+        <v>499.7914826407791</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51171862421154</v>
+        <v>25.51171862421122</v>
       </c>
       <c r="E4" t="n">
         <v>94.284071563358</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260721</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.16788127951003</v>
+        <v>61.16788127951001</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.7914826407788</v>
+        <v>499.7914826407791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.51171862421154</v>
+        <v>25.51171862421122</v>
       </c>
       <c r="M4" t="n">
         <v>94.284071563358</v>
@@ -27385,7 +27385,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>181.2538332101093</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.9008762597161</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>42.87037271521891</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>145.8331994083447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,25 +27537,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.4687355293019</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>94.16710381075337</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>244.7522551730604</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>78.57614763213942</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>126.4434023757678</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>156.6122476288817</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27786,13 +27786,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>104.6997177063264</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27825,7 +27825,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>218.811122946715</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27853,10 +27853,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>252.2029040586242</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>11.13587453373967</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27913,13 +27913,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>109.8564807160669</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>264.4087689746606</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28111,28 +28111,28 @@
         <v>109.9211455237819</v>
       </c>
       <c r="J11" t="n">
-        <v>23.37415036050569</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>23.37415036050567</v>
+      </c>
+      <c r="O11" t="n">
         <v>109.9211455237819</v>
       </c>
-      <c r="L11" t="n">
+      <c r="P11" t="n">
         <v>109.9211455237819</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Q11" t="n">
         <v>109.9211455237819</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>109.9211455237819</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21.26645374118931</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>88.96491619802896</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28354,19 +28354,19 @@
         <v>109.9211455237819</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>23.37415036050555</v>
+      </c>
+      <c r="P14" t="n">
         <v>109.9211455237819</v>
-      </c>
-      <c r="M14" t="n">
-        <v>23.37415036050567</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -28585,7 +28585,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28597,19 +28597,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>120.8806788490493</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>171.0890268032919</v>
-      </c>
-      <c r="R17" t="n">
-        <v>120.88067884905</v>
       </c>
       <c r="S17" t="n">
         <v>171.0890268032919</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>29.77848998202552</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>154.2051587647581</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>167.2305511458285</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>151.2758739120429</v>
       </c>
       <c r="S19" t="n">
         <v>171.0890268032919</v>
@@ -28822,31 +28822,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>120.8806788490501</v>
+      </c>
+      <c r="Q20" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>120.8806788490486</v>
       </c>
       <c r="S20" t="n">
         <v>171.0890268032919</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>21.26645374119019</v>
+        <v>88.96491619802892</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>153.7382344365718</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.40127827312521</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29062,19 +29062,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>120.8806788490493</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>120.8806788490481</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>88.96491619802933</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>29.77848998202643</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>161.0282291087964</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.249310340277376</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29305,13 +29305,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943538</v>
       </c>
       <c r="N26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>105.8703697943558</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
         <v>113.4301655082087</v>
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29533,13 +29533,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943538</v>
       </c>
       <c r="K29" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
-        <v>105.8703697943555</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M29" t="n">
         <v>113.4301655082087</v>
@@ -29603,10 +29603,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="H30" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29770,25 +29770,25 @@
         <v>141.7358901475849</v>
       </c>
       <c r="J32" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>141.7358901475849</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>61.88025498773919</v>
       </c>
       <c r="N32" t="n">
-        <v>61.88025498773874</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="O32" t="n">
         <v>141.7358901475849</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Q32" t="n">
         <v>141.7358901475849</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4257494917437</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="O34" t="n">
         <v>141.7358901475849</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.7358901475849</v>
+        <v>102.4257494917437</v>
       </c>
       <c r="R34" t="n">
         <v>141.7358901475849</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>116.9787331327006</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.68561682995335</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30244,13 +30244,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.58157162934992</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.5815716293493</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210976</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,13 +30481,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,13 +30496,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>40.58157162934987</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550327</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>46.68561682995329</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>66.73508319210941</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9787331327014</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>40.5815716293481</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
+      <c r="R44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550324</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>46.68561682995329</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>214.2757366774534</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>129.4454135849946</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,10 +34784,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>115.6834644588114</v>
+        <v>176.546238734677</v>
       </c>
       <c r="N3" t="n">
-        <v>499.7914826407788</v>
+        <v>499.7914826407791</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>67.09581914387178</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>214.2757366774547</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.9392126943519</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>335.6939994978678</v>
+        <v>499.7914826407791</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>96.09995265626898</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>352.4871778922493</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3205122762529</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>507.1324245673051</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>405.5270379238549</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>418.0065843852304</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>340.3826570955529</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>205.3072603586678</v>
       </c>
       <c r="R11" t="n">
-        <v>20.18924188467673</v>
+        <v>20.18924188467675</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.46447932381292</v>
+        <v>50.46447932381293</v>
       </c>
       <c r="K13" t="n">
         <v>143.8647695082702</v>
@@ -35574,19 +35574,19 @@
         <v>211.5444580492966</v>
       </c>
       <c r="M13" t="n">
-        <v>229.1065052486321</v>
+        <v>229.1065052486322</v>
       </c>
       <c r="N13" t="n">
         <v>229.5396725435803</v>
       </c>
       <c r="O13" t="n">
-        <v>209.3793743073068</v>
+        <v>209.3793743073069</v>
       </c>
       <c r="P13" t="n">
         <v>173.5256745421029</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.76917759093406</v>
+        <v>71.76917759093408</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>352.4871778922493</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3205122762529</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>420.5854294040288</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>331.459589221954</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>340.3826570955529</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>20.18924188467673</v>
+        <v>20.18924188467675</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>216.7613786244638</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864892</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.46447932381292</v>
+        <v>50.46447932381293</v>
       </c>
       <c r="K16" t="n">
         <v>143.8647695082702</v>
@@ -35811,19 +35811,19 @@
         <v>211.5444580492966</v>
       </c>
       <c r="M16" t="n">
-        <v>229.1065052486321</v>
+        <v>229.1065052486322</v>
       </c>
       <c r="N16" t="n">
         <v>229.5396725435803</v>
       </c>
       <c r="O16" t="n">
-        <v>209.3793743073068</v>
+        <v>209.3793743073069</v>
       </c>
       <c r="P16" t="n">
         <v>173.5256745421029</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.76917759093406</v>
+        <v>71.76917759093408</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>243.8148290990552</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35893,19 +35893,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>503.0335664123985</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>401.5505383750628</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.4751416381778</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>31.14877520994483</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>229.2373586066879</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.249310340277435</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.6550591717594</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>351.3421904208211</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>266.4751416381778</v>
       </c>
       <c r="R20" t="n">
-        <v>31.14877520994345</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>440.5199109778236</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062412</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.249310340277435</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.249310340277364</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>413.6550591717594</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>472.2800456015202</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>503.0335664123974</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>479.1744656647404</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>155.8986043485977</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>354.469754998127</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36507,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.249310340277443</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>122.8678373600757</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
         <v>99.45822878352493</v>
@@ -36595,19 +36595,19 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>510.6414445517319</v>
+        <v>503.081648837877</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>413.9558086558043</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.155967803972</v>
+        <v>178.5961720901171</v>
       </c>
       <c r="K29" t="n">
         <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
-        <v>457.2697365468264</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M29" t="n">
         <v>510.6414445517319</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.4616924433482</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>384.3019225160524</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
         <v>493.1352569000559</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>459.0915340312624</v>
       </c>
       <c r="N32" t="n">
-        <v>444.033142551088</v>
+        <v>523.8887777109342</v>
       </c>
       <c r="O32" t="n">
         <v>449.8213290090334</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>372.1974017193559</v>
       </c>
       <c r="Q32" t="n">
         <v>237.1220049824708</v>
@@ -37236,7 +37236,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>222.044276511542</v>
+        <v>261.3544171673833</v>
       </c>
       <c r="O34" t="n">
         <v>241.1941189311099</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.5839222147371</v>
+        <v>64.27378155889588</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>468.3780998851715</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>148.308929355468</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251132</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818202</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335173</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.5831152592619</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069135</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,16 +37792,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>348.6670104907983</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335173</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586534</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>80.62924081444159</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -37956,10 +37956,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.58311525926155</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>189.7045354284647</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5284318949278</v>
+        <v>391.980938381819</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>146.1438456134782</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
